--- a/test-preader.xlsx
+++ b/test-preader.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shef_covid\elisa-dl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shef_covid\elisa-dl-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A59E4D3-F1BD-4D38-818C-A3DFBD992DAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FC45AD-6D9B-4F2D-BB5F-E4D51454DAAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1665" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="0" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -349,7 +349,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2586,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3165,328 +3166,328 @@
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17">
-        <v>1.5371699999999999</v>
-      </c>
-      <c r="C17">
-        <v>1.26532</v>
-      </c>
-      <c r="D17">
-        <v>0.80420400000000003</v>
-      </c>
-      <c r="E17">
-        <v>0.46288000000000001</v>
-      </c>
-      <c r="F17">
-        <v>0.27228400000000003</v>
-      </c>
-      <c r="G17">
-        <v>0.130996</v>
-      </c>
-      <c r="H17">
-        <v>1.3076700000000001</v>
-      </c>
-      <c r="I17">
-        <v>1.2462800000000001</v>
-      </c>
-      <c r="J17">
-        <v>0.70674400000000004</v>
-      </c>
-      <c r="K17">
-        <v>4.38331E-2</v>
-      </c>
-      <c r="L17">
-        <v>0.39028299999999999</v>
-      </c>
-      <c r="M17">
-        <v>0.19040399999999999</v>
+      <c r="B17" s="1">
+        <v>1.18835</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.63154999999999994</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.35012100000000002</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.22586600000000001</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.14452999999999999</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8.9663199999999998E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2.1485799999999999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.85942499999999999</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.51550200000000002</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.300315</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.16245499999999999</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>7.56299E-2</v>
-      </c>
-      <c r="C18">
-        <v>5.4893499999999998E-2</v>
-      </c>
-      <c r="D18">
-        <v>4.8043200000000001E-2</v>
-      </c>
-      <c r="E18">
-        <v>4.4230899999999997E-2</v>
-      </c>
-      <c r="F18">
-        <v>4.5971400000000003E-2</v>
-      </c>
-      <c r="G18">
-        <v>4.4985200000000003E-2</v>
-      </c>
-      <c r="H18">
-        <v>0.93965699999999996</v>
-      </c>
-      <c r="I18">
-        <v>0.61602999999999997</v>
-      </c>
-      <c r="J18">
-        <v>0.19054699999999999</v>
-      </c>
-      <c r="K18">
-        <v>4.4047700000000002E-2</v>
-      </c>
-      <c r="L18">
-        <v>0.107099</v>
-      </c>
-      <c r="M18">
-        <v>6.5748699999999993E-2</v>
+      <c r="B18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.66178999999999999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.218223</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.12914500000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8.37725E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.91567</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1.3329299999999999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.85000299999999995</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.46349499999999999</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.29791400000000001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.16814499999999999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19">
-        <v>1.57907</v>
-      </c>
-      <c r="C19">
-        <v>1.19875</v>
-      </c>
-      <c r="D19">
-        <v>0.90113299999999996</v>
-      </c>
-      <c r="E19">
-        <v>0.47509200000000001</v>
-      </c>
-      <c r="F19">
-        <v>0.25947799999999999</v>
-      </c>
-      <c r="G19">
-        <v>0.124322</v>
-      </c>
-      <c r="H19">
-        <v>0.40132600000000002</v>
-      </c>
-      <c r="I19">
-        <v>0.23923</v>
-      </c>
-      <c r="J19">
-        <v>7.1167499999999995E-2</v>
-      </c>
-      <c r="K19">
-        <v>4.3946100000000002E-2</v>
-      </c>
-      <c r="L19">
-        <v>5.4716000000000001E-2</v>
-      </c>
-      <c r="M19">
-        <v>4.8096699999999999E-2</v>
+      <c r="B19" s="1">
+        <v>3.04535</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.1406200000000002</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.4797899999999999</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.85331900000000005</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.481576</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.26733000000000001</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3.4188900000000002</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.6773600000000002</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.99668</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1.3124400000000001</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.79025100000000004</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.79025100000000004</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20">
-        <v>1.4538800000000001</v>
-      </c>
-      <c r="C20">
-        <v>1.1703699999999999</v>
-      </c>
-      <c r="D20">
-        <v>0.79578000000000004</v>
-      </c>
-      <c r="E20">
-        <v>0.45944699999999999</v>
-      </c>
-      <c r="F20">
-        <v>0.25328000000000001</v>
-      </c>
-      <c r="G20">
-        <v>0.12514500000000001</v>
-      </c>
-      <c r="H20">
-        <v>0.79705599999999999</v>
-      </c>
-      <c r="I20">
-        <v>0.50868800000000003</v>
-      </c>
-      <c r="J20">
-        <v>0.13658799999999999</v>
-      </c>
-      <c r="K20">
-        <v>4.4534799999999999E-2</v>
-      </c>
-      <c r="L20">
-        <v>8.2225500000000007E-2</v>
-      </c>
-      <c r="M20">
-        <v>5.80257E-2</v>
+      <c r="B20" s="1">
+        <v>3.1214200000000001</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.1803400000000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.50749</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.77456899999999995</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.47378999999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.26632899999999998</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3.22695</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.6072600000000001</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.93974</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.35392</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.83837399999999995</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.83837399999999995</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21">
-        <v>0.59637399999999996</v>
-      </c>
-      <c r="C21">
-        <v>0.35165200000000002</v>
-      </c>
-      <c r="D21">
-        <v>0.22459000000000001</v>
-      </c>
-      <c r="E21">
-        <v>9.4702300000000003E-2</v>
-      </c>
-      <c r="F21">
-        <v>6.51698E-2</v>
-      </c>
-      <c r="G21">
-        <v>4.82741E-2</v>
-      </c>
-      <c r="H21">
-        <v>1.1712</v>
-      </c>
-      <c r="I21">
-        <v>0.80108400000000002</v>
-      </c>
-      <c r="J21">
-        <v>0.28520400000000001</v>
-      </c>
-      <c r="K21">
-        <v>4.4779300000000001E-2</v>
-      </c>
-      <c r="L21">
-        <v>0.15778200000000001</v>
-      </c>
-      <c r="M21">
-        <v>8.8370099999999993E-2</v>
+      <c r="B21" s="1">
+        <v>1.19956</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.72015399999999996</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.420207</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.23082800000000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.13400300000000001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>9.0364899999999998E-2</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.5046900000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.86443499999999995</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.58377400000000002</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.32556299999999999</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.20749400000000001</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.13587299999999999</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22">
-        <v>0.30210599999999999</v>
-      </c>
-      <c r="C22">
-        <v>0.14618</v>
-      </c>
-      <c r="D22">
-        <v>8.1063399999999994E-2</v>
-      </c>
-      <c r="E22">
-        <v>6.2099399999999999E-2</v>
-      </c>
-      <c r="F22">
-        <v>4.9386699999999999E-2</v>
-      </c>
-      <c r="G22">
-        <v>4.5219299999999997E-2</v>
-      </c>
-      <c r="H22">
-        <v>1.1174900000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.77724199999999999</v>
-      </c>
-      <c r="J22">
-        <v>0.188638</v>
-      </c>
-      <c r="K22">
-        <v>4.5866999999999998E-2</v>
-      </c>
-      <c r="L22">
-        <v>0.10530200000000001</v>
-      </c>
-      <c r="M22">
-        <v>6.8327200000000005E-2</v>
+      <c r="B22" s="1">
+        <v>1.2941</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.69247300000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.38291700000000001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.205043</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.12883900000000001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8.6352799999999993E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.53599</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.956932</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.58589100000000005</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.33780500000000002</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.19733400000000001</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.12990299999999999</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23">
-        <v>2.23</v>
-      </c>
-      <c r="C23">
-        <v>2.1480000000000001</v>
-      </c>
-      <c r="D23">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="E23">
-        <v>1.841</v>
-      </c>
-      <c r="F23">
-        <v>1.621</v>
-      </c>
-      <c r="G23">
-        <v>1.2909999999999999</v>
-      </c>
-      <c r="H23">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="I23">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="J23">
-        <v>0.6</v>
-      </c>
-      <c r="K23">
-        <v>0.42</v>
-      </c>
-      <c r="L23">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="M23">
-        <v>0.29299999999999998</v>
+      <c r="B23" s="1">
+        <v>3.4954499999999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.93927</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.91608</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1.1517299999999999</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.65324800000000005</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.37326500000000001</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2.86178</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2.7281300000000002</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2.8983400000000001</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.24861</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.25147700000000001</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.24817500000000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24">
-        <v>2.3039999999999998</v>
-      </c>
-      <c r="C24">
-        <v>2.1219999999999999</v>
-      </c>
-      <c r="D24">
-        <v>1.9550000000000001</v>
-      </c>
-      <c r="E24">
-        <v>1.7889999999999999</v>
-      </c>
-      <c r="F24">
-        <v>1.544</v>
-      </c>
-      <c r="G24">
-        <v>1.2809999999999999</v>
-      </c>
-      <c r="H24">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="I24">
-        <v>0.755</v>
-      </c>
-      <c r="J24">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="K24">
-        <v>0.41199999999999998</v>
-      </c>
-      <c r="L24">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="M24">
-        <v>0.27600000000000002</v>
+      <c r="B24" s="1">
+        <v>3.75014</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.1765699999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.0388899999999999</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.1285700000000001</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.72527200000000003</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.39187100000000002</v>
+      </c>
+      <c r="H24" s="1">
+        <v>4.8602399999999997E-2</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5.11847E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5.1563199999999997E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5.2033200000000002E-2</v>
+      </c>
+      <c r="L24" s="1">
+        <v>5.3522599999999997E-2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>7.7787099999999998E-2</v>
       </c>
     </row>
   </sheetData>
